--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C525F9CC-5E3E-4037-9CEA-19ADDE0D4C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB610E-3BA3-445A-ACE3-BC4E71C076EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FFFFC5EE-1C33-4D25-B8E3-0CB8BC35AC79}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FFFFC5EE-1C33-4D25-B8E3-0CB8BC35AC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>SAP</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Softwarelicenses</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -510,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1242E4-B6A1-4FB0-A3CB-A092712C410E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>246.5</v>
+        <v>263.39999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -543,7 +555,7 @@
         <v>1166</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -555,7 +567,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>287419</v>
+        <v>307124.39999999997</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,7 +582,7 @@
         <v>12072</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -582,7 +594,7 @@
         <v>10903</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,7 +603,7 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>286250</v>
+        <v>305955.39999999997</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -615,13 +627,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9F7950-C6D4-45BE-9ABB-35D588AE4233}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,12 +642,12 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
@@ -660,8 +672,20 @@
       <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -678,7 +702,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>24</v>
       </c>
@@ -695,7 +719,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -712,7 +736,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -729,8 +753,8 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5">
@@ -746,7 +770,7 @@
         <v>7744</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:K7" si="1">SUM(F3:F6)</f>
+        <f t="shared" ref="F7:N7" si="1">SUM(F3:F6)</f>
         <v>0</v>
       </c>
       <c r="G7" s="5">
@@ -769,8 +793,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -780,7 +816,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -790,7 +826,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -800,7 +836,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -810,7 +846,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -820,7 +856,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -830,7 +866,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -840,7 +876,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -850,7 +886,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>

--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546AC2C6-671B-4AB0-890D-E7F6BB8C91FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0076764-56CE-4789-B05E-54BCDB23394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{FFFFC5EE-1C33-4D25-B8E3-0CB8BC35AC79}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FFFFC5EE-1C33-4D25-B8E3-0CB8BC35AC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1242E4-B6A1-4FB0-A3CB-A092712C410E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -745,11 +745,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9F7950-C6D4-45BE-9ABB-35D588AE4233}">
   <dimension ref="A1:AP192"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -810,13 +810,17 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8">
+        <v>3928</v>
+      </c>
       <c r="H3" s="8">
         <v>4153</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="8">
+        <v>4993</v>
+      </c>
       <c r="L3" s="8">
         <v>5130</v>
       </c>
@@ -859,13 +863,17 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8">
+        <v>3031</v>
+      </c>
       <c r="H4" s="8">
         <v>2792</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="8">
+        <v>2945</v>
+      </c>
       <c r="L4" s="8">
         <v>2835</v>
       </c>
@@ -908,13 +916,17 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8">
+        <v>1081</v>
+      </c>
       <c r="H5" s="8">
         <v>1114</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="8">
+        <v>1075</v>
+      </c>
       <c r="L5" s="8">
         <v>1061</v>
       </c>
@@ -957,13 +969,17 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9">
+        <v>8041</v>
+      </c>
       <c r="H6" s="9">
         <v>8288</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="9">
+        <v>9013</v>
+      </c>
       <c r="L6" s="9">
         <v>9027</v>
       </c>
@@ -1006,13 +1022,17 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8">
+        <v>1091</v>
+      </c>
       <c r="H7" s="8">
         <v>1123</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8">
+        <v>1273</v>
+      </c>
       <c r="L7" s="8">
         <v>1297</v>
       </c>
@@ -1055,13 +1075,17 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8">
+        <v>326</v>
+      </c>
       <c r="H8" s="8">
         <v>311</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8">
+        <v>292</v>
+      </c>
       <c r="L8" s="8">
         <v>313</v>
       </c>
@@ -1104,13 +1128,17 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8">
+        <v>862</v>
+      </c>
       <c r="H9" s="8">
         <v>837</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8">
+        <v>841</v>
+      </c>
       <c r="L9" s="8">
         <v>797</v>
       </c>
@@ -1167,7 +1195,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5762</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="0"/>
@@ -1183,7 +1211,7 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6607</v>
       </c>
       <c r="L10" s="8">
         <f>+L6-SUM(L7:L9)</f>
@@ -1228,13 +1256,17 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>1665</v>
+      </c>
       <c r="H11" s="8">
         <v>1605</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8">
+        <v>1673</v>
+      </c>
       <c r="L11" s="8">
         <v>1618</v>
       </c>
@@ -1277,13 +1309,17 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8">
+        <v>2278</v>
+      </c>
       <c r="H12" s="8">
         <v>2217</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8">
+        <v>2235</v>
+      </c>
       <c r="L12" s="8">
         <v>2156</v>
       </c>
@@ -1326,13 +1362,17 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="8">
+        <v>360</v>
+      </c>
       <c r="H13" s="8">
         <v>336</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8">
+        <v>358</v>
+      </c>
       <c r="L13" s="8">
         <v>361</v>
       </c>
@@ -1375,13 +1415,17 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="8">
+        <v>2242</v>
+      </c>
       <c r="H14" s="8">
         <v>631</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
       <c r="L14" s="8">
         <v>18</v>
       </c>
@@ -1424,13 +1468,17 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
       <c r="H15" s="8">
         <v>5</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="8">
+        <v>8</v>
+      </c>
       <c r="L15" s="8">
         <v>11</v>
       </c>
@@ -1487,7 +1535,7 @@
       </c>
       <c r="G16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-787</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
@@ -1503,7 +1551,7 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2333</v>
       </c>
       <c r="L16" s="8">
         <f>+L10-SUM(L11:L15)</f>
@@ -1548,13 +1596,18 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="8">
+        <f>-148-45</f>
+        <v>-193</v>
+      </c>
       <c r="H17" s="8">
         <v>165</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8">
+        <v>135</v>
+      </c>
       <c r="L17" s="8">
         <v>46</v>
       </c>
@@ -1611,7 +1664,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-980</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="2"/>
@@ -1627,7 +1680,7 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2468</v>
       </c>
       <c r="L18" s="8">
         <f>+L16+L17</f>
@@ -1672,13 +1725,17 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>-157</v>
+      </c>
       <c r="H19" s="8">
         <v>469</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8">
+        <v>672</v>
+      </c>
       <c r="L19" s="8">
         <v>753</v>
       </c>
@@ -1721,13 +1778,17 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="8">
+        <v>4</v>
+      </c>
       <c r="H20" s="8">
         <v>30</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="8">
+        <v>16</v>
+      </c>
       <c r="L20" s="8">
         <v>52</v>
       </c>
@@ -1784,7 +1845,7 @@
       </c>
       <c r="G21" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-827</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="3"/>
@@ -1800,7 +1861,7 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1780</v>
       </c>
       <c r="L21" s="8">
         <f>+L18-L19-L20</f>
@@ -1899,9 +1960,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="10" t="e">
+      <c r="G23" s="10">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>-0.70926243567753</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="4"/>
@@ -1915,9 +1976,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="10" t="e">
+      <c r="K23" s="10">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1.5265866209262435</v>
       </c>
       <c r="L23" s="10">
         <f>+L21/L24</f>
@@ -1968,13 +2029,17 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="8">
+        <v>1166</v>
+      </c>
       <c r="H24" s="8">
         <v>1166</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="K24" s="8">
+        <v>1166</v>
+      </c>
       <c r="L24" s="8">
         <v>1166</v>
       </c>
@@ -2063,7 +2128,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="K26" s="11">
+        <f>+K3/G3-1</f>
+        <v>0.27113034623217924</v>
+      </c>
       <c r="L26" s="11">
         <f>+L3/H3-1</f>
         <v>0.2352516253310859</v>
@@ -2117,9 +2185,12 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="K27" s="11">
+        <f t="shared" ref="K27:L29" si="7">+K4/G4-1</f>
+        <v>-2.8373474100956808E-2</v>
+      </c>
       <c r="L27" s="11">
-        <f t="shared" ref="L27:L29" si="7">+L4/H4-1</f>
+        <f t="shared" si="7"/>
         <v>1.5401146131805099E-2</v>
       </c>
       <c r="M27" s="11" t="e">
@@ -2171,7 +2242,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="K28" s="11">
+        <f t="shared" si="7"/>
+        <v>-5.5504162812211044E-3</v>
+      </c>
       <c r="L28" s="11">
         <f t="shared" si="7"/>
         <v>-4.7576301615798955E-2</v>
@@ -2225,7 +2299,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="K29" s="12">
+        <f t="shared" si="7"/>
+        <v>0.12088048750155456</v>
+      </c>
       <c r="L29" s="12">
         <f t="shared" si="7"/>
         <v>8.9165057915058021E-2</v>
@@ -2287,9 +2364,9 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="11" t="e">
+      <c r="G30" s="11">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.72225050916496947</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="10"/>
@@ -2303,9 +2380,9 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="11" t="e">
+      <c r="K30" s="11">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>0.74504306028439815</v>
       </c>
       <c r="L30" s="11">
         <f>+(L3-L7)/L3</f>
@@ -2368,9 +2445,9 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="11" t="e">
+      <c r="G31" s="11">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.89244473771032662</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="12"/>
@@ -2384,9 +2461,9 @@
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="11" t="e">
+      <c r="K31" s="11">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>0.90084889643463495</v>
       </c>
       <c r="L31" s="11">
         <f>+(L4-L8)/L4</f>
@@ -2449,9 +2526,9 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="11" t="e">
+      <c r="G32" s="11">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.20259019426456984</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="14"/>
@@ -2465,9 +2542,9 @@
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="11" t="e">
+      <c r="K32" s="11">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.21767441860465117</v>
       </c>
       <c r="L32" s="11">
         <f>+(L5-L9)/L5</f>
@@ -2530,9 +2607,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="11" t="e">
+      <c r="G33" s="11">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.71657754010695185</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="16"/>
@@ -2546,9 +2623,9 @@
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="11" t="e">
+      <c r="K33" s="11">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.73305225784977257</v>
       </c>
       <c r="L33" s="11">
         <f>+L10/L6</f>
@@ -2611,9 +2688,9 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="11" t="e">
+      <c r="G34" s="11">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>-9.7873398830991165E-2</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="18"/>
@@ -2627,9 +2704,9 @@
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="11" t="e">
+      <c r="K34" s="11">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.25884833018972597</v>
       </c>
       <c r="L34" s="11">
         <f>+L16/L6</f>
@@ -2692,9 +2769,9 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="11" t="e">
+      <c r="G35" s="11">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.16020408163265307</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="20"/>
@@ -2708,9 +2785,9 @@
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="11" t="e">
+      <c r="K35" s="11">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.27228525121555913</v>
       </c>
       <c r="L35" s="11">
         <f>+L19/L18</f>

--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0076764-56CE-4789-B05E-54BCDB23394F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D071D8BC-1EC6-414E-9A08-3D1CAC3B7261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FFFFC5EE-1C33-4D25-B8E3-0CB8BC35AC79}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{FFFFC5EE-1C33-4D25-B8E3-0CB8BC35AC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1242E4-B6A1-4FB0-A3CB-A092712C410E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>230.45</v>
+        <v>237.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
       </c>
       <c r="H4" s="4">
         <f>+H2*H3</f>
-        <v>268704.7</v>
+        <v>277274.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
       </c>
       <c r="H7" s="4">
         <f>+H4-H5+H6</f>
-        <v>267907.7</v>
+        <v>276477.8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9F7950-C6D4-45BE-9ABB-35D588AE4233}">
   <dimension ref="A1:AP192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
